--- a/plan/test/結合テスト/結合テスト仕様書-FP002顧客ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP002顧客ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD80878-9508-46C4-A09F-7957669793D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E951B2-DD51-4234-A106-4EC18DCCAA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,7 +1147,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,20 +1206,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,6 +1284,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,71 +1338,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1696,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1715,25 +1712,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1748,23 +1745,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="33" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1777,50 +1774,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1829,20 +1826,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="25" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1852,268 +1849,268 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="18"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="18"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="18"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="18"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17" ht="11">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="22" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:17" ht="11">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="18"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="22" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="18"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="22" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="18"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
     </row>
     <row r="16" spans="1:17" ht="11.5" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="18"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2125,18 +2122,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="18"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2148,20 +2145,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="22" t="s">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="18"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2173,18 +2170,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="22" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="18"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2196,18 +2193,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="22" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="18"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2219,18 +2216,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="22" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
       <c r="M21" s="18"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2242,18 +2239,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="22" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="18"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2265,18 +2262,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="22" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2288,18 +2285,18 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="22" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2311,18 +2308,18 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="22" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="18"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2334,18 +2331,18 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="22" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="18"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2357,18 +2354,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="22" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="18"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2380,18 +2377,18 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="22" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="18"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2403,370 +2400,372 @@
         <v>24</v>
       </c>
       <c r="B29" s="19"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="22" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="18"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="11">
+    <row r="30" spans="1:17" ht="22.5" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="B30" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
       <c r="M30" s="18"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="20"/>
-      <c r="Q30" s="21"/>
-    </row>
-    <row r="31" spans="1:17" ht="11">
+      <c r="Q30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" ht="22.5" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
       <c r="M31" s="18"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="21"/>
-    </row>
-    <row r="32" spans="1:17" ht="11.5" customHeight="1">
+      <c r="P31" s="30"/>
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" ht="22.5" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
       <c r="M32" s="18"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-    </row>
-    <row r="33" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P32" s="30"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" ht="22.5" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-    </row>
-    <row r="34" spans="1:17" ht="11" customHeight="1">
+      <c r="P33" s="30"/>
+      <c r="Q33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" ht="22.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
       <c r="M34" s="18"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15"/>
-    </row>
-    <row r="35" spans="1:17" ht="10.5" customHeight="1">
+      <c r="P34" s="30"/>
+      <c r="Q34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" ht="22.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
       <c r="M35" s="18"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15"/>
-    </row>
-    <row r="36" spans="1:17" ht="11" customHeight="1">
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+    </row>
+    <row r="36" spans="1:17" ht="45" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15"/>
-    </row>
-    <row r="37" spans="1:17" ht="11" customHeight="1">
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+    </row>
+    <row r="37" spans="1:17" ht="22.5" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="18"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
-    </row>
-    <row r="38" spans="1:17" ht="11" customHeight="1">
+      <c r="P37" s="33"/>
+      <c r="Q37" s="34"/>
+    </row>
+    <row r="38" spans="1:17" ht="11">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
+      <c r="B38" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
       <c r="M38" s="18"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
-    </row>
-    <row r="39" spans="1:17" ht="11" customHeight="1">
+      <c r="P38" s="33"/>
+      <c r="Q38" s="34"/>
+    </row>
+    <row r="39" spans="1:17" ht="11">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
       <c r="M39" s="18"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15"/>
-    </row>
-    <row r="40" spans="1:17" ht="11" customHeight="1">
+      <c r="P39" s="33"/>
+      <c r="Q39" s="34"/>
+    </row>
+    <row r="40" spans="1:17" ht="11.5" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
       <c r="M40" s="18"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15"/>
-    </row>
-    <row r="41" spans="1:17" ht="11" customHeight="1">
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+    </row>
+    <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="53" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
       <c r="M41" s="18"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
     </row>
     <row r="42" spans="1:17" ht="11" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
       <c r="M42" s="18"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" ht="11" customHeight="1">
+    <row r="43" spans="1:17" ht="10.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
       <c r="M43" s="18"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -2777,21 +2776,21 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
       <c r="M44" s="18"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -2802,376 +2801,351 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
       <c r="M45" s="18"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" ht="11">
+    <row r="46" spans="1:17" ht="11" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
       <c r="M46" s="18"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" ht="22.5" customHeight="1">
+    <row r="47" spans="1:17" ht="11" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
       <c r="M47" s="18"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-    </row>
-    <row r="48" spans="1:17" ht="22.5" customHeight="1">
+      <c r="P47" s="14"/>
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="1:17" ht="11" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="61"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
       <c r="M48" s="18"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="61"/>
-    </row>
-    <row r="49" spans="1:17" ht="22.5" customHeight="1">
+      <c r="P48" s="14"/>
+      <c r="Q48" s="15"/>
+    </row>
+    <row r="49" spans="1:17" ht="11" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="61"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
       <c r="M49" s="18"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="61"/>
-    </row>
-    <row r="50" spans="1:17" ht="22.5" customHeight="1">
+      <c r="P49" s="14"/>
+      <c r="Q49" s="15"/>
+    </row>
+    <row r="50" spans="1:17" ht="11" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="61"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="32"/>
       <c r="M50" s="18"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="61"/>
-    </row>
-    <row r="51" spans="1:17" ht="22.5" customHeight="1">
+      <c r="P50" s="14"/>
+      <c r="Q50" s="15"/>
+    </row>
+    <row r="51" spans="1:17" ht="11" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="61"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
       <c r="M51" s="18"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="61"/>
-    </row>
-    <row r="52" spans="1:17" ht="22.5" customHeight="1">
+      <c r="P51" s="14"/>
+      <c r="Q51" s="15"/>
+    </row>
+    <row r="52" spans="1:17" ht="11" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
       <c r="M52" s="18"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-    </row>
-    <row r="53" spans="1:17" ht="45" customHeight="1">
+      <c r="P52" s="14"/>
+      <c r="Q52" s="15"/>
+    </row>
+    <row r="53" spans="1:17" ht="11" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
       <c r="M53" s="18"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-    </row>
-    <row r="54" spans="1:17" ht="22.5" customHeight="1">
+      <c r="P53" s="14"/>
+      <c r="Q53" s="15"/>
+    </row>
+    <row r="54" spans="1:17" ht="11">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
       <c r="M54" s="18"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="21"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="15"/>
     </row>
     <row r="55" spans="1:17" ht="13.5" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
       <c r="M55" s="18"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="54" t="s">
+      <c r="P55" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="Q55" s="54"/>
+      <c r="Q55" s="21"/>
     </row>
     <row r="56" spans="1:17" ht="29" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="54" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
       <c r="M56" s="18"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="54" t="s">
+      <c r="P56" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="Q56" s="54"/>
+      <c r="Q56" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="B30:B46"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
     <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C8:G11"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
     <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="P15:Q15"/>
@@ -3187,50 +3161,73 @@
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H50:L50"/>
     <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
     <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C8:G11"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="B38:B54"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="B30:B37"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP002顧客ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP002顧客ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E951B2-DD51-4234-A106-4EC18DCCAA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4BE4EE-997C-49DB-8C70-6F1BFAF8B0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>作成者</t>
   </si>
@@ -568,26 +568,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品画像を押下</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品詳細画面」へ遷移</t>
-    <rPh sb="1" eb="7">
-      <t>ショウヒンショウサイガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン画面(バックエンド)」へ遷移</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -598,20 +578,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン」リンクが表示されていない</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログアウト」ボタンが表示されていること</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「購入(入力)画面」へ遷移</t>
     <rPh sb="1" eb="3">
       <t>コウニュウ</t>
@@ -841,6 +807,20 @@
   </si>
   <si>
     <t>メールアドレス：0123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890@email.jp, パスワード：admi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト(顧客名)」リンクがが表示されていないこと</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」リンクが表示されていること</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1206,27 +1186,132 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1235,111 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1691,9 +1671,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C53" sqref="C53:G53"/>
     </sheetView>
   </sheetViews>
@@ -1712,25 +1692,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1745,23 +1725,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="53" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1774,50 +1754,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1826,20 +1806,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1849,569 +1829,569 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
-    </row>
-    <row r="6" spans="1:17" ht="11">
+      <c r="Q5" s="43"/>
+    </row>
+    <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="18"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" ht="11">
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" ht="11">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="18"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-    </row>
-    <row r="9" spans="1:17" ht="11">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-    </row>
-    <row r="10" spans="1:17" ht="11">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
+    </row>
+    <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="18"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-    </row>
-    <row r="11" spans="1:17" ht="11">
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+    </row>
+    <row r="11" spans="1:17" ht="12" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="18"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-    </row>
-    <row r="12" spans="1:17" ht="11">
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
+    </row>
+    <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="24" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-    </row>
-    <row r="13" spans="1:17" ht="11">
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="18"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
-    </row>
-    <row r="14" spans="1:17" ht="11">
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="24" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="18"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
-    </row>
-    <row r="15" spans="1:17" ht="11">
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="18"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
-    </row>
-    <row r="16" spans="1:17" ht="11.5" customHeight="1">
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="18"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" ht="11" customHeight="1">
+    <row r="17" spans="1:17" ht="12" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="18"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="11">
+    <row r="18" spans="1:17" ht="12" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="18"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" ht="10.5" customHeight="1">
+    <row r="19" spans="1:17" ht="12" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="24" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="18"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" ht="11">
+    <row r="20" spans="1:17" ht="12" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="24" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="18"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="11">
+    <row r="21" spans="1:17" ht="12" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="24" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="18"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" ht="11">
+    <row r="22" spans="1:17" ht="12" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="24" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="18"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="11">
+    <row r="23" spans="1:17" ht="12" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="24" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="11">
+    <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="24" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" ht="11">
+    <row r="25" spans="1:17" ht="12" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="24" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
       <c r="M25" s="18"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="11">
+    <row r="26" spans="1:17" ht="12" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="24" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="18"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="11">
+    <row r="27" spans="1:17" ht="12" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="24" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="46"/>
       <c r="M27" s="18"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="11">
+    <row r="28" spans="1:17" ht="12" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="24" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
       <c r="M28" s="18"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="11">
+    <row r="29" spans="1:17" ht="12" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="19"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="24" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="18"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2422,798 +2402,670 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="B30" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="18"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:17" ht="22.5" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="30" t="s">
+      <c r="B31" s="63"/>
+      <c r="C31" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
       <c r="M31" s="18"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="32"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="22.5" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="18"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="32"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="22.5" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="60"/>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="32"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="18"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="32"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="22.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
       <c r="M35" s="18"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:17" ht="45" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="22.5" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
       <c r="M37" s="18"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="34"/>
-    </row>
-    <row r="38" spans="1:17" ht="11">
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
+    </row>
+    <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="26"/>
+      <c r="B38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
       <c r="M38" s="18"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="34"/>
-    </row>
-    <row r="39" spans="1:17" ht="11">
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48"/>
+    </row>
+    <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="26"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
       <c r="M39" s="18"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="34"/>
-    </row>
-    <row r="40" spans="1:17" ht="11.5" customHeight="1">
+      <c r="P39" s="47"/>
+      <c r="Q39" s="48"/>
+    </row>
+    <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="24" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="20" t="s">
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
       <c r="M40" s="18"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-    </row>
-    <row r="41" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+    </row>
+    <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="20" t="s">
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
       <c r="M41" s="18"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-    </row>
-    <row r="42" spans="1:17" ht="11" customHeight="1">
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="18"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" ht="10.5" customHeight="1">
+    <row r="43" spans="1:17" ht="12" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="24" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="46"/>
       <c r="M43" s="18"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" ht="11" customHeight="1">
+    <row r="44" spans="1:17" ht="12" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="24" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
       <c r="M44" s="18"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:17" ht="11" customHeight="1">
+    <row r="45" spans="1:17" ht="12" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
       <c r="M45" s="18"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" ht="11" customHeight="1">
+    <row r="46" spans="1:17" ht="12" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
       <c r="M46" s="18"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" ht="11" customHeight="1">
+    <row r="47" spans="1:17" ht="12" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
       <c r="M47" s="18"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="14"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="1:17" ht="11" customHeight="1">
+    <row r="48" spans="1:17" ht="12" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
       <c r="M48" s="18"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="1:17" ht="11" customHeight="1">
+    <row r="49" spans="1:17" ht="12" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="60"/>
       <c r="M49" s="18"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" ht="11" customHeight="1">
+    <row r="50" spans="1:17" ht="12" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
       <c r="M50" s="18"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="14"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:17" ht="11" customHeight="1">
+    <row r="51" spans="1:17" ht="12" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
       <c r="M51" s="18"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="14"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="1:17" ht="11" customHeight="1">
+    <row r="52" spans="1:17" ht="12" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
       <c r="M52" s="18"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="14"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="1:17" ht="11" customHeight="1">
+    <row r="53" spans="1:17" ht="12" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
       <c r="M53" s="18"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="14"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="1:17" ht="11">
+    <row r="54" spans="1:17" ht="12" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
+      <c r="B54" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
       <c r="M54" s="18"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="15"/>
-    </row>
-    <row r="55" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P54" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q54" s="40"/>
+    </row>
+    <row r="55" spans="1:17" ht="29" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
       <c r="M55" s="18"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q55" s="21"/>
-    </row>
-    <row r="56" spans="1:17" ht="29" customHeight="1">
-      <c r="A56" s="6">
-        <v>51</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q56" s="21"/>
+      <c r="P55" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:G17"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
+  <mergeCells count="121">
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="H47:L47"/>
     <mergeCell ref="H48:L48"/>
     <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C8:G11"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="B38:B54"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
@@ -3228,6 +3080,107 @@
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="B38:B53"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C8:G11"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP002顧客ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP002顧客ログイン画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4BE4EE-997C-49DB-8C70-6F1BFAF8B0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274B5565-9050-4DEE-996B-64F714C103FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
   <si>
     <t>作成者</t>
   </si>
@@ -258,20 +258,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「トップ」と表示されていること</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「トップ画面」と表示されていること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「文具/雑貨販売フロント」と表示されていること</t>
     <rPh sb="1" eb="3">
       <t>ブング</t>
@@ -720,11 +706,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メールアドレス：tanaka@email.jp, 
-パスワード：passtanaka</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン後トップ画面へ遷移すること</t>
     <rPh sb="4" eb="5">
       <t>ゴ</t>
@@ -787,11 +768,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メールアドレス：tanaka@email.jp, 
-パスワード：passtanaka1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メールアドレス：tanaka.email.jp,
 パスワード：passtanaka</t>
     <phoneticPr fontId="2"/>
@@ -820,6 +796,55 @@
     <t>「ログイン」リンクが表示されていること</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン画面」と表示されていること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」と表示されていること</t>
+    <rPh sb="0" eb="1">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス：tanaka@email.jp
+パスワード：passtanaka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス：tanaka@email.jp
+パスワード：passtanaka1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良・舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タチカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1186,15 +1211,81 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,9 +1337,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,69 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1673,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1692,25 +1717,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,23 +1750,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1754,50 +1779,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1806,20 +1831,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1829,271 +1854,337 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="12" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
     </row>
@@ -2102,21 +2193,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
     </row>
@@ -2125,23 +2222,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
     </row>
@@ -2150,21 +2253,27 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
     </row>
@@ -2173,21 +2282,27 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
     </row>
@@ -2196,21 +2311,27 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="15"/>
     </row>
@@ -2219,21 +2340,27 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="15"/>
     </row>
@@ -2242,21 +2369,27 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="15"/>
     </row>
@@ -2265,21 +2398,27 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="15"/>
     </row>
@@ -2288,21 +2427,27 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="15"/>
     </row>
@@ -2311,21 +2456,27 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="15"/>
     </row>
@@ -2334,21 +2485,27 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="15"/>
     </row>
@@ -2357,21 +2514,27 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="15"/>
     </row>
@@ -2380,21 +2543,27 @@
         <v>24</v>
       </c>
       <c r="B29" s="19"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="15"/>
     </row>
@@ -2402,328 +2571,410 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="B30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
     </row>
     <row r="31" spans="1:17" ht="22.5" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="60"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" ht="22.5" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="60"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" ht="22.5" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="60"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="60"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" ht="22.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
     </row>
     <row r="36" spans="1:17" ht="45" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
     </row>
     <row r="37" spans="1:17" ht="22.5" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="48"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q37" s="32"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="48"/>
+      <c r="B38" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="32"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="58" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="48"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q39" s="32"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="15"/>
     </row>
@@ -2731,24 +2982,30 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="44" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="15"/>
     </row>
@@ -2756,24 +3013,30 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="44" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="15"/>
     </row>
@@ -2781,24 +3044,30 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P45" s="14"/>
       <c r="Q45" s="15"/>
     </row>
@@ -2806,24 +3075,30 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="15"/>
     </row>
@@ -2831,24 +3106,30 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="15"/>
     </row>
@@ -2856,24 +3137,30 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="15"/>
     </row>
@@ -2881,24 +3168,30 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="15"/>
     </row>
@@ -2906,24 +3199,30 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="15"/>
     </row>
@@ -2931,24 +3230,30 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="15"/>
     </row>
@@ -2956,24 +3261,30 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P52" s="14"/>
       <c r="Q52" s="15"/>
     </row>
@@ -2981,24 +3292,30 @@
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P53" s="14"/>
       <c r="Q53" s="15"/>
     </row>
@@ -3006,60 +3323,169 @@
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q54" s="40"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="21"/>
     </row>
     <row r="55" spans="1:17" ht="29" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q55" s="40"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="18">
+        <v>45511</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C8:G11"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="B38:B53"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="H54:L54"/>
     <mergeCell ref="P54:Q54"/>
     <mergeCell ref="H47:L47"/>
@@ -3084,103 +3510,6 @@
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="P39:Q39"/>
     <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="B38:B53"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C8:G11"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:G17"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP002顧客ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP002顧客ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274B5565-9050-4DEE-996B-64F714C103FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E479F8-0C79-4C61-A0F1-3C8ACF54BCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="97">
   <si>
     <t>作成者</t>
   </si>
@@ -1211,12 +1211,120 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1226,14 +1334,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1243,108 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1698,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37:Q37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1717,25 +1717,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,23 +1750,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1779,50 +1779,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1831,20 +1831,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="62" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1854,32 +1854,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="64"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="18">
         <v>45511</v>
       </c>
@@ -1889,28 +1889,28 @@
       <c r="O6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="18">
         <v>45511</v>
       </c>
@@ -1920,28 +1920,28 @@
       <c r="O7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="18">
         <v>45511</v>
       </c>
@@ -1951,26 +1951,26 @@
       <c r="O8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
       <c r="M9" s="18">
         <v>45511</v>
       </c>
@@ -1980,26 +1980,26 @@
       <c r="O9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="18">
         <v>45511</v>
       </c>
@@ -2009,26 +2009,26 @@
       <c r="O10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:17" ht="12" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="18">
         <v>45511</v>
       </c>
@@ -2038,28 +2038,28 @@
       <c r="O11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="32"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="25" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="18">
         <v>45511</v>
       </c>
@@ -2069,26 +2069,26 @@
       <c r="O12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="18">
         <v>45511</v>
       </c>
@@ -2098,26 +2098,26 @@
       <c r="O13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="25" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="18">
         <v>45511</v>
       </c>
@@ -2127,26 +2127,26 @@
       <c r="O14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="25" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="18">
         <v>45511</v>
       </c>
@@ -2156,26 +2156,26 @@
       <c r="O15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="18">
         <v>45511</v>
       </c>
@@ -2193,18 +2193,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="25" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="18">
         <v>45511</v>
       </c>
@@ -2222,20 +2222,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="25" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="18">
         <v>45511</v>
       </c>
@@ -2253,18 +2253,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="25" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="18">
         <v>45511</v>
       </c>
@@ -2282,18 +2282,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="25" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="18">
         <v>45511</v>
       </c>
@@ -2311,18 +2311,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="25" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="18">
         <v>45511</v>
       </c>
@@ -2340,18 +2340,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="25" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="18">
         <v>45511</v>
       </c>
@@ -2369,18 +2369,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="25" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="27"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
       <c r="M23" s="18">
         <v>45511</v>
       </c>
@@ -2398,18 +2398,18 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="25" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="18">
         <v>45511</v>
       </c>
@@ -2427,18 +2427,18 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="25" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
       <c r="M25" s="18">
         <v>45511</v>
       </c>
@@ -2456,18 +2456,18 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="25" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46"/>
       <c r="M26" s="18">
         <v>45511</v>
       </c>
@@ -2485,18 +2485,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="25" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="46"/>
       <c r="M27" s="18">
         <v>45511</v>
       </c>
@@ -2514,18 +2514,18 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="25" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
       <c r="M28" s="18">
         <v>45511</v>
       </c>
@@ -2543,18 +2543,18 @@
         <v>24</v>
       </c>
       <c r="B29" s="19"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="25" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="18">
         <v>45511</v>
       </c>
@@ -2571,23 +2571,23 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="18">
         <v>45511</v>
       </c>
@@ -2597,28 +2597,28 @@
       <c r="O30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:17" ht="22.5" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="63"/>
+      <c r="C31" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="22" t="s">
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
       <c r="M31" s="18">
         <v>45511</v>
       </c>
@@ -2628,28 +2628,28 @@
       <c r="O31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="24"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="22.5" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="63"/>
+      <c r="C32" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="22" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="18">
         <v>45511</v>
       </c>
@@ -2659,28 +2659,28 @@
       <c r="O32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="24"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="22.5" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="63"/>
+      <c r="C33" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="22" t="s">
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="60"/>
       <c r="M33" s="18">
         <v>45511</v>
       </c>
@@ -2690,28 +2690,28 @@
       <c r="O33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="24"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="22" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="18">
         <v>45511</v>
       </c>
@@ -2721,28 +2721,28 @@
       <c r="O34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="24"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="22.5" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="63"/>
+      <c r="C35" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
       <c r="M35" s="18">
         <v>45511</v>
       </c>
@@ -2752,28 +2752,28 @@
       <c r="O35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:17" ht="45" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="63"/>
+      <c r="C36" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="18">
         <v>45511</v>
       </c>
@@ -2783,28 +2783,28 @@
       <c r="O36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="22.5" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
       <c r="M37" s="18">
         <v>45511</v>
       </c>
@@ -2814,32 +2814,30 @@
       <c r="O37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P37" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q37" s="32"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25" t="s">
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="27"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
       <c r="M38" s="18">
         <v>45511</v>
       </c>
@@ -2849,28 +2847,28 @@
       <c r="O38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="32"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25" t="s">
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="27"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
       <c r="M39" s="18">
         <v>45511</v>
       </c>
@@ -2878,32 +2876,32 @@
         <v>95</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P39" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="Q39" s="32"/>
+      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="20" t="s">
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
       <c r="M40" s="18">
         <v>45511</v>
       </c>
@@ -2913,28 +2911,28 @@
       <c r="O40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="20" t="s">
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
       <c r="M41" s="18">
         <v>45511</v>
       </c>
@@ -2944,28 +2942,28 @@
       <c r="O41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="20" t="s">
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="18">
         <v>45511</v>
       </c>
@@ -2982,21 +2980,21 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="25" t="s">
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="46"/>
       <c r="M43" s="18">
         <v>45511</v>
       </c>
@@ -3013,21 +3011,21 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="20" t="s">
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
       <c r="M44" s="18">
         <v>45511</v>
       </c>
@@ -3044,21 +3042,21 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="20" t="s">
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
       <c r="M45" s="18">
         <v>45511</v>
       </c>
@@ -3075,21 +3073,21 @@
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="20" t="s">
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
       <c r="M46" s="18">
         <v>45511</v>
       </c>
@@ -3106,21 +3104,21 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="20" t="s">
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
       <c r="M47" s="18">
         <v>45511</v>
       </c>
@@ -3137,21 +3135,21 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="25" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="20" t="s">
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
       <c r="M48" s="18">
         <v>45511</v>
       </c>
@@ -3168,21 +3166,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="25" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="22" t="s">
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="60"/>
       <c r="M49" s="18">
         <v>45511</v>
       </c>
@@ -3199,21 +3197,21 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="25" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="20" t="s">
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
       <c r="M50" s="18">
         <v>45511</v>
       </c>
@@ -3230,21 +3228,21 @@
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="25" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="20" t="s">
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
       <c r="M51" s="18">
         <v>45511</v>
       </c>
@@ -3261,21 +3259,21 @@
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="25" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="20" t="s">
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
       <c r="M52" s="18">
         <v>45511</v>
       </c>
@@ -3292,21 +3290,21 @@
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="25" t="s">
+      <c r="B53" s="61"/>
+      <c r="C53" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="20" t="s">
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
       <c r="M53" s="18">
         <v>45511</v>
       </c>
@@ -3323,23 +3321,23 @@
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20" t="s">
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
       <c r="M54" s="18">
         <v>45511</v>
       </c>
@@ -3349,30 +3347,30 @@
       <c r="O54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="21" t="s">
+      <c r="P54" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="Q54" s="21"/>
+      <c r="Q54" s="40"/>
     </row>
     <row r="55" spans="1:17" ht="29" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
       <c r="M55" s="18">
         <v>45511</v>
       </c>
@@ -3382,32 +3380,91 @@
       <c r="O55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P55" s="21" t="s">
+      <c r="P55" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="Q55" s="21"/>
+      <c r="Q55" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="B38:B53"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="H29:L29"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="H9:L9"/>
@@ -3432,84 +3489,25 @@
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="H31:L31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="B38:B53"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
